--- a/Ecoli.xlsx
+++ b/Ecoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{596F84C0-18DD-42BF-9EA6-86F67AB213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E0BAE2-34E4-4BC1-962D-ED287E8F10D7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{596F84C0-18DD-42BF-9EA6-86F67AB213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79ABBEB6-D093-4248-A9DF-EF0B48E893D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC2CC034-6FD4-4C29-9771-12379029887F}"/>
   </bookViews>
@@ -83,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +423,7 @@
   <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +446,7 @@
       <c r="A2">
         <v>20220065432</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -453,7 +455,7 @@
       <c r="A3">
         <v>20240016182</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>-6.6332500000000003</v>
       </c>
     </row>
@@ -461,7 +463,7 @@
       <c r="A4">
         <v>20230125389</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-15.309799999999999</v>
       </c>
       <c r="C4">
@@ -472,7 +474,7 @@
       <c r="A5">
         <v>20180022685</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-7.7070400000000001</v>
       </c>
       <c r="C5">
@@ -483,7 +485,7 @@
       <c r="A6">
         <v>20201415102</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6">
@@ -494,7 +496,7 @@
       <c r="A7">
         <v>20240012395</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>-10.255100000000001</v>
       </c>
       <c r="C7">
@@ -505,7 +507,7 @@
       <c r="A8">
         <v>20220166372</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>-8.8733400000000007</v>
       </c>
       <c r="C8">
@@ -516,7 +518,7 @@
       <c r="A9">
         <v>20240018475</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>-11.3352</v>
       </c>
     </row>
@@ -524,7 +526,7 @@
       <c r="A10">
         <v>20230149608</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>-11.282</v>
       </c>
       <c r="C10">
@@ -535,7 +537,7 @@
       <c r="A11">
         <v>20240016829</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>-8.73</v>
       </c>
       <c r="C11">
@@ -546,7 +548,7 @@
       <c r="A12">
         <v>20230179067</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>-10.79</v>
       </c>
       <c r="C12">
@@ -557,7 +559,7 @@
       <c r="A13">
         <v>20180188108</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>-6.48</v>
       </c>
       <c r="C13">
@@ -568,7 +570,7 @@
       <c r="A14">
         <v>20230141608</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>-7.35</v>
       </c>
       <c r="C14">
@@ -579,7 +581,7 @@
       <c r="A15">
         <v>20240020494</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>-5.4089999999999998</v>
       </c>
       <c r="C15">
@@ -590,7 +592,7 @@
       <c r="A16">
         <v>20240020519</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>-6.27</v>
       </c>
       <c r="C16">
@@ -601,7 +603,7 @@
       <c r="A17">
         <v>20240015483</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>-8.6300000000000008</v>
       </c>
       <c r="C17">
@@ -612,7 +614,7 @@
       <c r="A18">
         <v>20240001249</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>-10.78</v>
       </c>
       <c r="C18">
@@ -623,7 +625,7 @@
       <c r="A19">
         <v>20210094336</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>-24.48</v>
       </c>
       <c r="C19">
@@ -634,7 +636,7 @@
       <c r="A20">
         <v>20240006140</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>-9.18</v>
       </c>
       <c r="C20">
@@ -645,7 +647,7 @@
       <c r="A21">
         <v>20240020436</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>-11.36</v>
       </c>
       <c r="C21">
@@ -656,7 +658,7 @@
       <c r="A22">
         <v>20240022478</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>-8.0500000000000007</v>
       </c>
       <c r="C22">
@@ -667,7 +669,7 @@
       <c r="A23">
         <v>20240022523</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>-11.506</v>
       </c>
       <c r="C23">
@@ -678,7 +680,7 @@
       <c r="A24">
         <v>20220102808</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>-5.69</v>
       </c>
       <c r="C24">
@@ -689,7 +691,7 @@
       <c r="A25">
         <v>20240022502</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>-2.2400000000000002</v>
       </c>
       <c r="C25">
@@ -700,7 +702,7 @@
       <c r="A26">
         <v>20240017188</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>-5.66</v>
       </c>
       <c r="C26">
@@ -711,7 +713,7 @@
       <c r="A27">
         <v>20220064259</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>-10.75</v>
       </c>
       <c r="C27">
@@ -722,7 +724,7 @@
       <c r="A28">
         <v>20240019044</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>-7.89</v>
       </c>
       <c r="C28">
@@ -733,7 +735,7 @@
       <c r="A29">
         <v>20240024003</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>-9.3800000000000008</v>
       </c>
       <c r="C29">
@@ -744,7 +746,7 @@
       <c r="A30">
         <v>20240012256</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>-10.25</v>
       </c>
       <c r="C30">
@@ -755,7 +757,7 @@
       <c r="A31">
         <v>20210046443</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>-7.67</v>
       </c>
       <c r="C31">
@@ -766,7 +768,7 @@
       <c r="A32">
         <v>20240024207</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>-6.03</v>
       </c>
       <c r="C32">
@@ -777,7 +779,7 @@
       <c r="A33">
         <v>20220153472</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>-4.47</v>
       </c>
       <c r="C33">
@@ -788,7 +790,7 @@
       <c r="A34">
         <v>20240024158</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>-12.69</v>
       </c>
       <c r="C34">
@@ -799,7 +801,7 @@
       <c r="A35">
         <v>20220088296</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>-10.88</v>
       </c>
       <c r="C35">
@@ -810,7 +812,7 @@
       <c r="A36">
         <v>20220064546</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>-13.24</v>
       </c>
       <c r="C36">
@@ -821,7 +823,7 @@
       <c r="A37">
         <v>20240024631</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>-7.95</v>
       </c>
       <c r="C37">
@@ -832,7 +834,7 @@
       <c r="A38">
         <v>20240022566</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>-11.39</v>
       </c>
       <c r="C38">
@@ -843,7 +845,7 @@
       <c r="A39">
         <v>20210126376</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>-4.58</v>
       </c>
       <c r="C39">
@@ -854,7 +856,7 @@
       <c r="A40">
         <v>20240012094</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>-6.29</v>
       </c>
       <c r="C40">
@@ -865,7 +867,7 @@
       <c r="A41">
         <v>20240027303</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>-6.02</v>
       </c>
       <c r="C41">
@@ -876,7 +878,7 @@
       <c r="A42">
         <v>20240002618</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>-6.91</v>
       </c>
       <c r="C42">
@@ -887,7 +889,7 @@
       <c r="A43">
         <v>20240023202</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>-9.69</v>
       </c>
       <c r="C43">
@@ -898,7 +900,7 @@
       <c r="A44">
         <v>20240027383</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>-5.66</v>
       </c>
       <c r="C44">
@@ -909,7 +911,7 @@
       <c r="A45">
         <v>20210126581</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>-8.85</v>
       </c>
       <c r="C45">
@@ -920,7 +922,7 @@
       <c r="A46">
         <v>20240026634</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>-9.2799999999999994</v>
       </c>
       <c r="C46">
@@ -931,7 +933,7 @@
       <c r="A47">
         <v>20240015339</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>-9.42</v>
       </c>
       <c r="C47">
@@ -942,7 +944,7 @@
       <c r="A48">
         <v>20240028955</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>-9.69</v>
       </c>
       <c r="C48">
@@ -953,7 +955,7 @@
       <c r="A49">
         <v>20240028466</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>-9.2100000000000009</v>
       </c>
       <c r="C49">
@@ -964,7 +966,7 @@
       <c r="A50">
         <v>20240029036</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>-8.66</v>
       </c>
       <c r="C50">
@@ -975,7 +977,7 @@
       <c r="A51">
         <v>20240028839</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>-5.47</v>
       </c>
       <c r="C51">
@@ -986,7 +988,7 @@
       <c r="A52">
         <v>20240025209</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>-6.54</v>
       </c>
       <c r="C52">
@@ -997,7 +999,7 @@
       <c r="A53">
         <v>20240028100</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>-7.31</v>
       </c>
       <c r="C53">
@@ -1008,7 +1010,7 @@
       <c r="A54">
         <v>20220083756</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>-5.31</v>
       </c>
       <c r="C54">
@@ -1019,7 +1021,7 @@
       <c r="A55">
         <v>20240030665</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>-4.13</v>
       </c>
       <c r="C55">
@@ -1030,7 +1032,7 @@
       <c r="A56">
         <v>20240030957</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>-8.16</v>
       </c>
       <c r="C56">
@@ -1041,7 +1043,7 @@
       <c r="A57">
         <v>20230158280</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>-4.3099999999999996</v>
       </c>
       <c r="C57">
@@ -1052,7 +1054,7 @@
       <c r="A58">
         <v>20240012274</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>-10.95</v>
       </c>
       <c r="C58">
@@ -1063,7 +1065,7 @@
       <c r="A59">
         <v>20240029225</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>-9.42</v>
       </c>
       <c r="C59">
@@ -1074,7 +1076,7 @@
       <c r="A60">
         <v>20240032359</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>-5.53</v>
       </c>
       <c r="C60">
@@ -1085,6 +1087,7 @@
       <c r="A61">
         <v>20240002772</v>
       </c>
+      <c r="B61" s="1"/>
       <c r="C61">
         <v>0</v>
       </c>
@@ -1093,7 +1096,7 @@
       <c r="A62">
         <v>20240030597</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>-9.4700000000000006</v>
       </c>
       <c r="C62">
@@ -1104,7 +1107,7 @@
       <c r="A63">
         <v>20240030258</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>-10.61</v>
       </c>
       <c r="C63">
@@ -1115,7 +1118,7 @@
       <c r="A64">
         <v>20230083087</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>-4.41</v>
       </c>
       <c r="C64">
@@ -1126,7 +1129,7 @@
       <c r="A65">
         <v>20240039022</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>-6.81</v>
       </c>
       <c r="C65">
@@ -1137,7 +1140,7 @@
       <c r="A66">
         <v>20240037502</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>-3.81</v>
       </c>
       <c r="C66">
@@ -1148,7 +1151,7 @@
       <c r="A67">
         <v>20240032128</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>-14.13</v>
       </c>
       <c r="C67">
@@ -1159,7 +1162,7 @@
       <c r="A68">
         <v>20240035983</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>-1.25</v>
       </c>
       <c r="C68">
@@ -1170,7 +1173,7 @@
       <c r="A69">
         <v>20190007174</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>-10.74</v>
       </c>
       <c r="C69">
@@ -1181,7 +1184,7 @@
       <c r="A70">
         <v>20240051938</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>-3.03</v>
       </c>
       <c r="C70">
@@ -1192,7 +1195,7 @@
       <c r="A71">
         <v>20240057825</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>-7.13</v>
       </c>
       <c r="C71">
@@ -1203,7 +1206,7 @@
       <c r="A72">
         <v>20240034567</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>-5.22</v>
       </c>
       <c r="C72">
@@ -1214,7 +1217,7 @@
       <c r="A73">
         <v>20240060316</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73">
@@ -1225,7 +1228,7 @@
       <c r="A74">
         <v>20240048714</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>-6.7</v>
       </c>
       <c r="C74">
@@ -1236,7 +1239,7 @@
       <c r="A75">
         <v>20230023891</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>-2.9</v>
       </c>
       <c r="C75">
@@ -1247,7 +1250,7 @@
       <c r="A76">
         <v>20180142185</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>-11</v>
       </c>
       <c r="C76">
@@ -1258,7 +1261,7 @@
       <c r="A77">
         <v>20240058395</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>-9.7200000000000006</v>
       </c>
       <c r="C77">
@@ -1269,7 +1272,7 @@
       <c r="A78">
         <v>20200075595</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>-7.7</v>
       </c>
       <c r="C78">
@@ -1280,7 +1283,7 @@
       <c r="A79">
         <v>20230040481</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>-3.17</v>
       </c>
       <c r="C79">
@@ -1291,7 +1294,7 @@
       <c r="A80">
         <v>20240062455</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>-5.14</v>
       </c>
       <c r="C80">
@@ -1302,7 +1305,7 @@
       <c r="A81">
         <v>20240062254</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>-3.91</v>
       </c>
       <c r="C81">
@@ -1313,7 +1316,7 @@
       <c r="A82">
         <v>20240048215</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>-6.72</v>
       </c>
       <c r="C82">
@@ -1324,7 +1327,7 @@
       <c r="A83">
         <v>20240060273</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>-7.94</v>
       </c>
       <c r="C83">
@@ -1335,7 +1338,7 @@
       <c r="A84">
         <v>20240054804</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>-2.75</v>
       </c>
       <c r="C84">
@@ -1346,7 +1349,7 @@
       <c r="A85">
         <v>20240051976</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>-10.5</v>
       </c>
       <c r="C85">
@@ -1357,7 +1360,7 @@
       <c r="A86">
         <v>20240068214</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>-3.93</v>
       </c>
       <c r="C86">
@@ -1368,7 +1371,7 @@
       <c r="A87">
         <v>20240068214</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>-4.2</v>
       </c>
       <c r="C87">
@@ -1379,7 +1382,7 @@
       <c r="A88">
         <v>20240066137</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>-4.29</v>
       </c>
       <c r="C88">
@@ -1390,7 +1393,7 @@
       <c r="A89">
         <v>20240069492</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>-5.19</v>
       </c>
       <c r="C89">
@@ -1401,7 +1404,7 @@
       <c r="A90">
         <v>20240067159</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>-5.9</v>
       </c>
       <c r="C90">
@@ -1412,7 +1415,7 @@
       <c r="A91">
         <v>20230028720</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>-9.32</v>
       </c>
       <c r="C91">
@@ -1423,7 +1426,7 @@
       <c r="A92">
         <v>20240046542</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>-6.35</v>
       </c>
       <c r="C92">
@@ -1434,7 +1437,7 @@
       <c r="A93">
         <v>20230137322</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>-3.3</v>
       </c>
       <c r="C93">
@@ -1445,7 +1448,7 @@
       <c r="A94">
         <v>20240015478</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>-7.54</v>
       </c>
       <c r="C94">
@@ -1456,7 +1459,7 @@
       <c r="A95">
         <v>20240068424</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>-4.63</v>
       </c>
       <c r="C95">
@@ -1467,7 +1470,7 @@
       <c r="A96">
         <v>20240071058</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>-10.72</v>
       </c>
       <c r="C96">
@@ -1478,7 +1481,7 @@
       <c r="A97">
         <v>20240074728</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>-8.42</v>
       </c>
       <c r="C97">
@@ -1489,7 +1492,7 @@
       <c r="A98">
         <v>20240074281</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>-4.17</v>
       </c>
       <c r="C98">
@@ -1500,7 +1503,7 @@
       <c r="A99">
         <v>20240076716</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>-7.98</v>
       </c>
       <c r="C99">
@@ -1511,7 +1514,7 @@
       <c r="A100">
         <v>20240078762</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>-6.22</v>
       </c>
       <c r="C100">
@@ -1522,7 +1525,7 @@
       <c r="A101">
         <v>20240078772</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>-5.7</v>
       </c>
       <c r="C101">
@@ -1533,7 +1536,7 @@
       <c r="A102">
         <v>20240062956</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>-5.1440000000000001</v>
       </c>
       <c r="C102">
@@ -1544,7 +1547,7 @@
       <c r="A103">
         <v>20240088127</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>-8.1</v>
       </c>
       <c r="C103">
@@ -1555,7 +1558,7 @@
       <c r="A104">
         <v>20240076818</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>-4.29</v>
       </c>
       <c r="C104">
@@ -1566,7 +1569,7 @@
       <c r="A105">
         <v>20240070348</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>-7.4980000000000002</v>
       </c>
       <c r="C105">
@@ -1577,7 +1580,7 @@
       <c r="A106">
         <v>20240028527</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>0</v>
       </c>
       <c r="C106">
@@ -1588,7 +1591,7 @@
       <c r="A107">
         <v>20230003855</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>-10.09</v>
       </c>
       <c r="C107">
@@ -1599,7 +1602,7 @@
       <c r="A108">
         <v>20240092861</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C108">
@@ -1610,7 +1613,7 @@
       <c r="A109">
         <v>20240087671</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>-7.09</v>
       </c>
       <c r="C109">
@@ -1621,7 +1624,7 @@
       <c r="A110">
         <v>20230121277</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>-10.29</v>
       </c>
       <c r="C110">
@@ -1632,7 +1635,7 @@
       <c r="A111">
         <v>20240094465</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>-9.5</v>
       </c>
       <c r="C111">
@@ -1643,7 +1646,7 @@
       <c r="A112">
         <v>20230156801</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>-2.84</v>
       </c>
       <c r="C112">
@@ -1654,7 +1657,7 @@
       <c r="A113">
         <v>20240053790</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>-8.8000000000000007</v>
       </c>
       <c r="C113">
@@ -1665,7 +1668,7 @@
       <c r="A114">
         <v>20240039512</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>-8.8000000000000007</v>
       </c>
       <c r="C114">
@@ -1676,7 +1679,7 @@
       <c r="A115">
         <v>20240107218</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>-8.1999999999999993</v>
       </c>
       <c r="C115">
@@ -1687,6 +1690,7 @@
       <c r="A116">
         <v>20240099770</v>
       </c>
+      <c r="B116" s="1"/>
       <c r="C116">
         <v>1</v>
       </c>
@@ -1695,7 +1699,7 @@
       <c r="A117">
         <v>20170059075</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>-5.41</v>
       </c>
       <c r="C117">
@@ -1706,7 +1710,7 @@
       <c r="A118">
         <v>20210062776</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>-5.6</v>
       </c>
       <c r="C118">
@@ -1717,6 +1721,7 @@
       <c r="A119">
         <v>20240043449</v>
       </c>
+      <c r="B119" s="1"/>
       <c r="C119">
         <v>0</v>
       </c>
@@ -1725,7 +1730,7 @@
       <c r="A120">
         <v>20240076642</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>-3.66</v>
       </c>
       <c r="C120">
@@ -1736,7 +1741,7 @@
       <c r="A121">
         <v>20240094375</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>-4.8099999999999996</v>
       </c>
       <c r="C121">
@@ -1747,7 +1752,7 @@
       <c r="A122">
         <v>107316668</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>-6.19</v>
       </c>
       <c r="C122">
@@ -1758,6 +1763,7 @@
       <c r="A123">
         <v>106105678</v>
       </c>
+      <c r="B123" s="1"/>
       <c r="C123">
         <v>0</v>
       </c>
@@ -1766,6 +1772,7 @@
       <c r="A124">
         <v>20130627983</v>
       </c>
+      <c r="B124" s="1"/>
       <c r="C124">
         <v>1</v>
       </c>
@@ -1774,6 +1781,7 @@
       <c r="A125">
         <v>105349965</v>
       </c>
+      <c r="B125" s="1"/>
       <c r="C125">
         <v>0</v>
       </c>
@@ -1782,7 +1790,7 @@
       <c r="A126">
         <v>107191161</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>-4.34</v>
       </c>
       <c r="C126">
@@ -1793,7 +1801,7 @@
       <c r="A127">
         <v>107591141</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>-6.89</v>
       </c>
       <c r="C127">
@@ -1804,7 +1812,7 @@
       <c r="A128">
         <v>106496785</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>-8.6</v>
       </c>
       <c r="C128">
@@ -1815,7 +1823,7 @@
       <c r="A129">
         <v>107588621</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>-5.5</v>
       </c>
       <c r="C129">
@@ -1826,7 +1834,7 @@
       <c r="A130">
         <v>107159161</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>-3.7</v>
       </c>
       <c r="C130">
@@ -1837,7 +1845,7 @@
       <c r="A131">
         <v>106037263</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>-14.16</v>
       </c>
       <c r="C131">
@@ -1848,7 +1856,7 @@
       <c r="A132">
         <v>105707937</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>-8.42</v>
       </c>
       <c r="C132">
@@ -1859,7 +1867,7 @@
       <c r="A133">
         <v>10749833</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>-6.98</v>
       </c>
       <c r="C133">
@@ -1870,7 +1878,7 @@
       <c r="A134">
         <v>106940756</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>-7.44</v>
       </c>
       <c r="C134">
@@ -1881,7 +1889,7 @@
       <c r="A135">
         <v>107688917</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>-6.14</v>
       </c>
       <c r="C135">
@@ -1892,7 +1900,7 @@
       <c r="A136">
         <v>107656065</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>-6.21</v>
       </c>
       <c r="C136">
@@ -1903,7 +1911,7 @@
       <c r="A137">
         <v>107332121</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>-3.1</v>
       </c>
       <c r="C137">
@@ -1914,7 +1922,7 @@
       <c r="A138">
         <v>105499701</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>-1.4</v>
       </c>
       <c r="C138">
@@ -1925,7 +1933,7 @@
       <c r="A139">
         <v>107545828</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>-4.82</v>
       </c>
       <c r="C139">
@@ -1936,7 +1944,7 @@
       <c r="A140">
         <v>105152175</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>-9.02</v>
       </c>
       <c r="C140">
@@ -1947,7 +1955,7 @@
       <c r="A141">
         <v>106765529</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>-4.57</v>
       </c>
       <c r="C141">
@@ -1958,7 +1966,7 @@
       <c r="A142">
         <v>107677777</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>-6</v>
       </c>
       <c r="C142">
@@ -1969,7 +1977,7 @@
       <c r="A143">
         <v>107523163</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>-3.67</v>
       </c>
       <c r="C143">
@@ -1980,7 +1988,7 @@
       <c r="A144">
         <v>107579659</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>-6.15</v>
       </c>
       <c r="C144">
@@ -1991,7 +1999,7 @@
       <c r="A145">
         <v>107607851</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>-4.9000000000000004</v>
       </c>
       <c r="C145">
@@ -2002,7 +2010,7 @@
       <c r="A146">
         <v>107727541</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>-4.3</v>
       </c>
       <c r="C146">
@@ -2013,7 +2021,7 @@
       <c r="A147">
         <v>107299718</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>-5.27</v>
       </c>
       <c r="C147">

--- a/Ecoli.xlsx
+++ b/Ecoli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{596F84C0-18DD-42BF-9EA6-86F67AB213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79ABBEB6-D093-4248-A9DF-EF0B48E893D8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{596F84C0-18DD-42BF-9EA6-86F67AB213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{711921A7-45BE-4CE3-B4EE-40BF85D6D93C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC2CC034-6FD4-4C29-9771-12379029887F}"/>
   </bookViews>
@@ -36,18 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>UHID</t>
+    <t>RAMJA</t>
   </si>
   <si>
-    <t>Parameter</t>
+    <t>AIIMS</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Outcome</t>
+    <t>score</t>
   </si>
 </sst>
 </file>
@@ -83,9 +80,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,73 +416,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61A94AD-B51C-474C-9B6E-3A98A7151590}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20220065432</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20240016182</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-6.6332500000000003</v>
+        <v>-15.309799999999999</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20230125389</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-15.309799999999999</v>
+        <v>-7.7070400000000001</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20180022685</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-7.7070400000000001</v>
+        <v>-10.255100000000001</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20201415102</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
+        <v>-8.8733400000000007</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -494,73 +489,76 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20240012395</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-10.255100000000001</v>
+        <v>-11.282</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20220166372</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-8.8733400000000007</v>
+        <v>-8.73</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20240018475</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-11.3352</v>
+        <v>-10.79</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20230149608</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-11.282</v>
+        <v>-6.48</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20240016829</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-8.73</v>
+        <v>-7.35</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20230179067</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-10.79</v>
+        <v>-5.4089999999999998</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20180188108</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-6.48</v>
+        <v>-6.27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -568,43 +566,43 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20230141608</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-7.35</v>
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20240020494</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-5.4089999999999998</v>
+        <v>-10.78</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20240020519</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-6.27</v>
+        <v>-24.48</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20240015483</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-8.6300000000000008</v>
+        <v>-9.18</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -612,10 +610,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20240001249</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-10.78</v>
+        <v>-11.36</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -623,10 +621,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20210094336</v>
-      </c>
-      <c r="B19" s="1">
-        <v>-24.48</v>
+        <v>-11.506</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -634,21 +632,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20240006140</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-9.18</v>
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20240020436</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-11.36</v>
+        <v>-10.75</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -656,21 +654,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20240022478</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-8.0500000000000007</v>
+        <v>-7.89</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20240022523</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-11.506</v>
+        <v>-9.3800000000000008</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -678,21 +676,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20220102808</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-5.69</v>
+        <v>-10.25</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20240022502</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-2.2400000000000002</v>
+        <v>-7.67</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -700,10 +698,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20240017188</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-5.66</v>
+        <v>-4.47</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -711,10 +709,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20220064259</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-10.75</v>
+        <v>-12.69</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -722,21 +720,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20240019044</v>
-      </c>
-      <c r="B28" s="1">
-        <v>-7.89</v>
+        <v>-10.88</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20240024003</v>
-      </c>
-      <c r="B29" s="1">
-        <v>-9.3800000000000008</v>
+        <v>-13.24</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -744,21 +742,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20240012256</v>
-      </c>
-      <c r="B30" s="1">
-        <v>-10.25</v>
+        <v>-4.58</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20210046443</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-7.67</v>
+        <v>-6.29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -766,10 +764,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20240024207</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-6.03</v>
+        <v>-6.02</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -777,10 +775,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20220153472</v>
-      </c>
-      <c r="B33" s="1">
-        <v>-4.47</v>
+        <v>-6.91</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -788,10 +786,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20240024158</v>
-      </c>
-      <c r="B34" s="1">
-        <v>-12.69</v>
+        <v>-9.69</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -799,21 +797,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20220088296</v>
-      </c>
-      <c r="B35" s="1">
-        <v>-10.88</v>
+        <v>-5.66</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20220064546</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-13.24</v>
+        <v>-9.42</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -821,32 +819,32 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20240024631</v>
-      </c>
-      <c r="B37" s="1">
-        <v>-7.95</v>
+        <v>-8.66</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>20240022566</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-11.39</v>
+        <v>-5.47</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20210126376</v>
-      </c>
-      <c r="B39" s="1">
-        <v>-4.58</v>
+        <v>-6.54</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -854,10 +852,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20240012094</v>
-      </c>
-      <c r="B40" s="1">
-        <v>-6.29</v>
+        <v>-7.31</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -865,10 +863,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20240027303</v>
-      </c>
-      <c r="B41" s="1">
-        <v>-6.02</v>
+        <v>-5.31</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -876,43 +874,43 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20240002618</v>
-      </c>
-      <c r="B42" s="1">
-        <v>-6.91</v>
+        <v>-8.16</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20240023202</v>
-      </c>
-      <c r="B43" s="1">
-        <v>-9.69</v>
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20240027383</v>
-      </c>
-      <c r="B44" s="1">
-        <v>-5.66</v>
+        <v>-10.95</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20210126581</v>
-      </c>
-      <c r="B45" s="1">
-        <v>-8.85</v>
+        <v>-9.42</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -920,32 +918,29 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20240026634</v>
-      </c>
-      <c r="B46" s="1">
-        <v>-9.2799999999999994</v>
+        <v>-5.53</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>20240015339</v>
-      </c>
-      <c r="B47" s="1">
-        <v>-9.42</v>
+      <c r="B47">
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20240028955</v>
-      </c>
-      <c r="B48" s="1">
-        <v>-9.69</v>
+        <v>-9.4700000000000006</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -953,10 +948,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20240028466</v>
-      </c>
-      <c r="B49" s="1">
-        <v>-9.2100000000000009</v>
+        <v>-10.61</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -964,21 +959,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20240029036</v>
-      </c>
-      <c r="B50" s="1">
-        <v>-8.66</v>
+        <v>-4.41</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20240028839</v>
-      </c>
-      <c r="B51" s="1">
-        <v>-5.47</v>
+        <v>-6.81</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -986,10 +981,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>20240025209</v>
-      </c>
-      <c r="B52" s="1">
-        <v>-6.54</v>
+        <v>-3.81</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -997,32 +992,32 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20240028100</v>
-      </c>
-      <c r="B53" s="1">
-        <v>-7.31</v>
+        <v>-14.13</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20220083756</v>
-      </c>
-      <c r="B54" s="1">
-        <v>-5.31</v>
+        <v>-10.74</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20240030665</v>
-      </c>
-      <c r="B55" s="1">
-        <v>-4.13</v>
+        <v>-3.03</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1030,21 +1025,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20240030957</v>
-      </c>
-      <c r="B56" s="1">
-        <v>-8.16</v>
+        <v>-5.22</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20230158280</v>
-      </c>
-      <c r="B57" s="1">
-        <v>-4.3099999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1052,74 +1047,76 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20240012274</v>
-      </c>
-      <c r="B58" s="1">
-        <v>-10.95</v>
+        <v>-6.7</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20240029225</v>
-      </c>
-      <c r="B59" s="1">
-        <v>-9.42</v>
+        <v>-2.9</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20240032359</v>
-      </c>
-      <c r="B60" s="1">
-        <v>-5.53</v>
+        <v>-11</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20240002772</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>-9.7200000000000006</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20240030597</v>
-      </c>
-      <c r="B62" s="1">
-        <v>-9.4700000000000006</v>
+        <v>-7.7</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>20240030258</v>
-      </c>
-      <c r="B63" s="1">
-        <v>-10.61</v>
+        <v>-3.17</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20230083087</v>
-      </c>
-      <c r="B64" s="1">
-        <v>-4.41</v>
+        <v>-5.14</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1127,10 +1124,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20240039022</v>
-      </c>
-      <c r="B65" s="1">
-        <v>-6.81</v>
+        <v>-3.91</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20240037502</v>
-      </c>
-      <c r="B66" s="1">
-        <v>-3.81</v>
+        <v>-6.72</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1149,10 +1146,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20240032128</v>
-      </c>
-      <c r="B67" s="1">
-        <v>-14.13</v>
+        <v>-7.94</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1160,10 +1157,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20240035983</v>
-      </c>
-      <c r="B68" s="1">
-        <v>-1.25</v>
+        <v>-2.75</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1171,10 +1168,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>20190007174</v>
-      </c>
-      <c r="B69" s="1">
-        <v>-10.74</v>
+        <v>-10.5</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1182,10 +1179,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20240051938</v>
-      </c>
-      <c r="B70" s="1">
-        <v>-3.03</v>
+        <v>-3.93</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1193,10 +1190,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20240057825</v>
-      </c>
-      <c r="B71" s="1">
-        <v>-7.13</v>
+        <v>-3.93</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1204,10 +1201,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20240034567</v>
-      </c>
-      <c r="B72" s="1">
-        <v>-5.22</v>
+        <v>-3.93</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1215,9 +1212,9 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20240060316</v>
-      </c>
-      <c r="B73" s="1">
+        <v>-3.93</v>
+      </c>
+      <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
@@ -1226,10 +1223,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20240048714</v>
-      </c>
-      <c r="B74" s="1">
-        <v>-6.7</v>
+        <v>-4.2</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1237,10 +1234,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20230023891</v>
-      </c>
-      <c r="B75" s="1">
-        <v>-2.9</v>
+        <v>-4.2</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1248,32 +1245,32 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20180142185</v>
-      </c>
-      <c r="B76" s="1">
-        <v>-11</v>
+        <v>-4.2</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20240058395</v>
-      </c>
-      <c r="B77" s="1">
-        <v>-9.7200000000000006</v>
+        <v>-4.2</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20200075595</v>
-      </c>
-      <c r="B78" s="1">
-        <v>-7.7</v>
+        <v>-4.29</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1281,10 +1278,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20230040481</v>
-      </c>
-      <c r="B79" s="1">
-        <v>-3.17</v>
+        <v>-5.19</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1292,10 +1289,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>20240062455</v>
-      </c>
-      <c r="B80" s="1">
-        <v>-5.14</v>
+        <v>-5.9</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1303,21 +1300,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>20240062254</v>
-      </c>
-      <c r="B81" s="1">
-        <v>-3.91</v>
+        <v>-9.32</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20240048215</v>
-      </c>
-      <c r="B82" s="1">
-        <v>-6.72</v>
+        <v>-6.35</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1325,65 +1322,65 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20240060273</v>
-      </c>
-      <c r="B83" s="1">
-        <v>-7.94</v>
+        <v>-3.3</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20240054804</v>
-      </c>
-      <c r="B84" s="1">
-        <v>-2.75</v>
+        <v>-7.54</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20240051976</v>
-      </c>
-      <c r="B85" s="1">
-        <v>-10.5</v>
+        <v>-4.63</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20240068214</v>
-      </c>
-      <c r="B86" s="1">
-        <v>-3.93</v>
+        <v>-10.72</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20240068214</v>
-      </c>
-      <c r="B87" s="1">
-        <v>-4.2</v>
+        <v>-8.42</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20240066137</v>
-      </c>
-      <c r="B88" s="1">
-        <v>-4.29</v>
+        <v>-4.17</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1391,10 +1388,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20240069492</v>
-      </c>
-      <c r="B89" s="1">
-        <v>-5.19</v>
+        <v>-7.98</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1402,10 +1399,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20240067159</v>
-      </c>
-      <c r="B90" s="1">
-        <v>-5.9</v>
+        <v>-6.22</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1413,21 +1410,21 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20230028720</v>
-      </c>
-      <c r="B91" s="1">
-        <v>-9.32</v>
+        <v>-5.7</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20240046542</v>
-      </c>
-      <c r="B92" s="1">
-        <v>-6.35</v>
+        <v>-5.1440000000000001</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1435,32 +1432,32 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20230137322</v>
-      </c>
-      <c r="B93" s="1">
-        <v>-3.3</v>
+        <v>-8.1</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>20240015478</v>
-      </c>
-      <c r="B94" s="1">
-        <v>-7.54</v>
+        <v>-4.29</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>20240068424</v>
-      </c>
-      <c r="B95" s="1">
-        <v>-4.63</v>
+        <v>-7.4980000000000002</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1468,32 +1465,29 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>20240071058</v>
-      </c>
-      <c r="B96" s="1">
-        <v>-10.72</v>
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>20240074728</v>
-      </c>
-      <c r="B97" s="1">
-        <v>-8.42</v>
+        <v>-10.09</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>20240074281</v>
-      </c>
-      <c r="B98" s="1">
-        <v>-4.17</v>
+      <c r="B98">
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1501,10 +1495,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20240076716</v>
-      </c>
-      <c r="B99" s="1">
-        <v>-7.98</v>
+        <v>-7.09</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1512,32 +1506,32 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20240078762</v>
-      </c>
-      <c r="B100" s="1">
-        <v>-6.22</v>
+        <v>-10.29</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20240078772</v>
-      </c>
-      <c r="B101" s="1">
-        <v>-5.7</v>
+        <v>-9.5</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>20240062956</v>
-      </c>
-      <c r="B102" s="1">
-        <v>-5.1440000000000001</v>
+        <v>-2.84</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1545,10 +1539,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>20240088127</v>
-      </c>
-      <c r="B103" s="1">
-        <v>-8.1</v>
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1556,21 +1550,21 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20240076818</v>
-      </c>
-      <c r="B104" s="1">
-        <v>-4.29</v>
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20240070348</v>
-      </c>
-      <c r="B105" s="1">
-        <v>-7.4980000000000002</v>
+        <v>-5.41</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1578,9 +1572,9 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>20240028527</v>
-      </c>
-      <c r="B106" s="1">
+        <v>-5.6</v>
+      </c>
+      <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
@@ -1588,22 +1582,19 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>20230003855</v>
-      </c>
-      <c r="B107" s="1">
-        <v>-10.09</v>
+      <c r="B107">
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>20240092861</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>2</v>
+        <v>-3.66</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -1611,43 +1602,34 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>20240087671</v>
-      </c>
-      <c r="B109" s="1">
-        <v>-7.09</v>
+        <v>-6.19</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>20230121277</v>
-      </c>
-      <c r="B110" s="1">
-        <v>-10.29</v>
+      <c r="B110">
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>20240094465</v>
-      </c>
-      <c r="B111" s="1">
-        <v>-9.5</v>
+      <c r="B111">
+        <v>0</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>20230156801</v>
-      </c>
-      <c r="B112" s="1">
-        <v>-2.84</v>
+      <c r="B112">
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -1655,63 +1637,65 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>20240053790</v>
-      </c>
-      <c r="B113" s="1">
-        <v>-8.8000000000000007</v>
+        <v>-4.34</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>20240039512</v>
-      </c>
-      <c r="B114" s="1">
-        <v>-8.8000000000000007</v>
+        <v>-8.6</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>20240107218</v>
-      </c>
-      <c r="B115" s="1">
-        <v>-8.1999999999999993</v>
+        <v>-5.5</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>20240099770</v>
-      </c>
-      <c r="B116" s="1"/>
+        <v>-3.7</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>20170059075</v>
-      </c>
-      <c r="B117" s="1">
-        <v>-5.41</v>
+        <v>-14.16</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>20210062776</v>
-      </c>
-      <c r="B118" s="1">
-        <v>-5.6</v>
+        <v>-8.42</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -1719,19 +1703,21 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>20240043449</v>
-      </c>
-      <c r="B119" s="1"/>
+        <v>-6.98</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
       <c r="C119">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>20240076642</v>
-      </c>
-      <c r="B120" s="1">
-        <v>-3.66</v>
+        <v>-7.44</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -1739,10 +1725,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>20240094375</v>
-      </c>
-      <c r="B121" s="1">
-        <v>-4.8099999999999996</v>
+        <v>-6.14</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -1750,10 +1736,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>107316668</v>
-      </c>
-      <c r="B122" s="1">
-        <v>-6.19</v>
+        <v>-6.21</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -1761,270 +1747,34 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>106105678</v>
-      </c>
-      <c r="B123" s="1"/>
+        <v>-4.57</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
       <c r="C123">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>20130627983</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>-6</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>105349965</v>
-      </c>
-      <c r="B125" s="1"/>
+        <v>-6.15</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
       <c r="C125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>107191161</v>
-      </c>
-      <c r="B126" s="1">
-        <v>-4.34</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>107591141</v>
-      </c>
-      <c r="B127" s="1">
-        <v>-6.89</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>106496785</v>
-      </c>
-      <c r="B128" s="1">
-        <v>-8.6</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>107588621</v>
-      </c>
-      <c r="B129" s="1">
-        <v>-5.5</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>107159161</v>
-      </c>
-      <c r="B130" s="1">
-        <v>-3.7</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>106037263</v>
-      </c>
-      <c r="B131" s="1">
-        <v>-14.16</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>105707937</v>
-      </c>
-      <c r="B132" s="1">
-        <v>-8.42</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>10749833</v>
-      </c>
-      <c r="B133" s="1">
-        <v>-6.98</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>106940756</v>
-      </c>
-      <c r="B134" s="1">
-        <v>-7.44</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>107688917</v>
-      </c>
-      <c r="B135" s="1">
-        <v>-6.14</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>107656065</v>
-      </c>
-      <c r="B136" s="1">
-        <v>-6.21</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>107332121</v>
-      </c>
-      <c r="B137" s="1">
-        <v>-3.1</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>105499701</v>
-      </c>
-      <c r="B138" s="1">
-        <v>-1.4</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>107545828</v>
-      </c>
-      <c r="B139" s="1">
-        <v>-4.82</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>105152175</v>
-      </c>
-      <c r="B140" s="1">
-        <v>-9.02</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>106765529</v>
-      </c>
-      <c r="B141" s="1">
-        <v>-4.57</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>107677777</v>
-      </c>
-      <c r="B142" s="1">
-        <v>-6</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>107523163</v>
-      </c>
-      <c r="B143" s="1">
-        <v>-3.67</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>107579659</v>
-      </c>
-      <c r="B144" s="1">
-        <v>-6.15</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>107607851</v>
-      </c>
-      <c r="B145" s="1">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>107727541</v>
-      </c>
-      <c r="B146" s="1">
-        <v>-4.3</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>107299718</v>
-      </c>
-      <c r="B147" s="1">
-        <v>-5.27</v>
-      </c>
-      <c r="C147">
         <v>0</v>
       </c>
     </row>

--- a/Ecoli.xlsx
+++ b/Ecoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{596F84C0-18DD-42BF-9EA6-86F67AB213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{711921A7-45BE-4CE3-B4EE-40BF85D6D93C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{596F84C0-18DD-42BF-9EA6-86F67AB213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{883802F3-6078-4568-9D68-E4681021C237}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC2CC034-6FD4-4C29-9771-12379029887F}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">

--- a/Ecoli.xlsx
+++ b/Ecoli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{596F84C0-18DD-42BF-9EA6-86F67AB213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{883802F3-6078-4568-9D68-E4681021C237}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{596F84C0-18DD-42BF-9EA6-86F67AB213CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E2EE81-606B-4CA3-A2F5-175FFC9A6561}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC2CC034-6FD4-4C29-9771-12379029887F}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="15288" windowHeight="12348" xr2:uid="{AC2CC034-6FD4-4C29-9771-12379029887F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,12 +419,12 @@
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2:D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-15.309799999999999</v>
       </c>
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-7.7070400000000001</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-10.255100000000001</v>
       </c>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-8.8733400000000007</v>
       </c>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-11.282</v>
       </c>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-8.73</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-10.79</v>
       </c>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-6.48</v>
       </c>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-7.35</v>
       </c>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-5.4089999999999998</v>
       </c>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-6.27</v>
       </c>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-8.6300000000000008</v>
       </c>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-10.78</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-24.48</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-9.18</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-11.36</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-11.506</v>
       </c>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-2.2400000000000002</v>
       </c>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-10.75</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-7.89</v>
       </c>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-9.3800000000000008</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-10.25</v>
       </c>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-7.67</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-4.47</v>
       </c>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-12.69</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-10.88</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-13.24</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-4.58</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-6.29</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-6.02</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-6.91</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-9.69</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-5.66</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-9.42</v>
       </c>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-8.66</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-5.47</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-6.54</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-7.31</v>
       </c>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-5.31</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-8.16</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-4.3099999999999996</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-10.95</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-9.42</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-5.53</v>
       </c>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>0</v>
       </c>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-9.4700000000000006</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-10.61</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-4.41</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-6.81</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-3.81</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-14.13</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-10.74</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-3.03</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-5.22</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-6.7</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-2.9</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-11</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-9.7200000000000006</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-7.7</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-3.17</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-5.14</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-3.91</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-6.72</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-7.94</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-2.75</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-10.5</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-3.93</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-3.93</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-3.93</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-3.93</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-4.2</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-4.2</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-4.2</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-4.2</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-4.29</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-5.19</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-5.9</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-9.32</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-6.35</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>-3.3</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-7.54</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>-4.63</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-10.72</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>-8.42</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>-4.17</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>-7.98</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>-6.22</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>-5.7</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-5.1440000000000001</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-8.1</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>-4.29</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>-7.4980000000000002</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>-10.09</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>0</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-7.09</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-10.29</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>-9.5</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>-2.84</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-8.8000000000000007</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-8.8000000000000007</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>-5.41</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-5.6</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>0</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>-3.66</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>-6.19</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>0</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>0</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>0</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>-4.34</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>-8.6</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>-5.5</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>-3.7</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>-14.16</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>-8.42</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>-6.98</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>-7.44</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>-6.14</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>-6.21</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>-4.57</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>-6</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>-6.15</v>
       </c>
